--- a/sensitivity_test.xlsx
+++ b/sensitivity_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FCUR/git/fmu-tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E59CC3B-3F3D-0A42-B4FB-693593E885DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7E3783-9438-8745-AE3C-215BDCF4FA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{AAC6A540-3703-D842-BB6E-2CFBC8A55A8F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{AAC6A540-3703-D842-BB6E-2CFBC8A55A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>designtype</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>west</t>
+  </si>
+  <si>
+    <t>velmodel</t>
+  </si>
+  <si>
+    <t>DC_MODEL</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>base</t>
   </si>
 </sst>
 </file>
@@ -503,10 +515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC2E45C-B837-6B4C-98F2-52DE9F6EF4AF}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,6 +576,26 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -572,9 +604,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5DC228-9B74-934F-83E8-A49D507EC325}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -600,6 +632,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
